--- a/data/unchecked/manual_collect/china/yunnan/yunnanCaseStatistics_20200219.xlsx
+++ b/data/unchecked/manual_collect/china/yunnan/yunnanCaseStatistics_20200219.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WDS\Desktop\疫情数据可视化\每日新增数据统计模板\2-18\unchecked\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WDS\Desktop\疫情数据可视化\每日新增数据统计模板\2-19\unchecked\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -10303,10 +10303,10 @@
     <t>地区待确认</t>
   </si>
   <si>
-    <t>2月18日0时至12时，云南省报告新型冠状病毒肺炎新增确诊病例为零。2月18日12时至24时，云南省报告新型冠状病毒肺炎新增确诊病例1例（昆明市）。</t>
-  </si>
-  <si>
-    <t>http://ynswsjkw.yn.gov.cn/wjwWebsite/web/doc/UU158201507058171136;http://ynswsjkw.yn.gov.cn/wjwWebsite/web/doc/UU158207563860448865</t>
+    <t>2月19日0时至12时，无新增确诊病例，新增治愈出院病例3例（昆明市2例、保山市1例），新增死亡病例1例（玉溪市）。2月19日12时至24时，无新增确诊病例。截至2月19日24时，全省累计确诊病例172例（昆明市核减1例）。</t>
+  </si>
+  <si>
+    <t>http://ynswsjkw.yn.gov.cn/wjwWebsite/web/doc/UU158208754844471887;http://ynswsjkw.yn.gov.cn/wjwWebsite/web/doc/UU158213709322465262</t>
   </si>
 </sst>
 </file>
@@ -10756,8 +10756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -10926,10 +10926,10 @@
         <v>3291</v>
       </c>
       <c r="C2" s="14">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="D2" s="14">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>3285</v>
@@ -10939,28 +10939,35 @@
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="12">
-        <v>1</v>
-      </c>
+      <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="13">
-        <v>10</v>
-      </c>
-      <c r="L2" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="L2" s="12">
+        <v>1</v>
+      </c>
       <c r="M2" s="12">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N2" s="12"/>
       <c r="O2" s="13">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="P2" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>-1</v>
+      </c>
+      <c r="R2" s="12">
+        <v>-1</v>
+      </c>
       <c r="S2" s="13" t="s">
         <v>3297</v>
       </c>
       <c r="T2" s="14">
-        <v>43879.506944444445</v>
+        <v>43881.315972222219</v>
       </c>
       <c r="U2" s="13" t="s">
         <v>3299</v>
@@ -10970,7 +10977,7 @@
       </c>
       <c r="W2" s="14"/>
       <c r="Z2" s="14">
-        <v>43880.512499999997</v>
+        <v>43881.319444444445</v>
       </c>
       <c r="AA2" s="13" t="s">
         <v>3293</v>
@@ -10993,10 +11000,10 @@
         <v>3292</v>
       </c>
       <c r="C3" s="14">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="D3" s="14">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>3285</v>
@@ -11007,23 +11014,26 @@
       <c r="G3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="13">
-        <v>1</v>
-      </c>
       <c r="K3" s="12">
         <v>2</v>
       </c>
       <c r="M3" s="13">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O3" s="13">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>-1</v>
+      </c>
+      <c r="R3" s="13">
+        <v>-1</v>
       </c>
       <c r="S3" s="13" t="s">
         <v>3297</v>
       </c>
       <c r="T3" s="14">
-        <v>43879.506944444445</v>
+        <v>43881.315972222219</v>
       </c>
       <c r="U3" s="13" t="s">
         <v>3299</v>
@@ -11033,7 +11043,7 @@
       </c>
       <c r="W3" s="14"/>
       <c r="Z3" s="14">
-        <v>43880.512499999997</v>
+        <v>43881.319444444445</v>
       </c>
       <c r="AA3" s="13" t="s">
         <v>3293</v>
@@ -11053,10 +11063,10 @@
         <v>3292</v>
       </c>
       <c r="C4" s="14">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="D4" s="14">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>3296</v>
@@ -11077,7 +11087,7 @@
         <v>3297</v>
       </c>
       <c r="T4" s="14">
-        <v>43879.506944444445</v>
+        <v>43881.315972222219</v>
       </c>
       <c r="U4" s="13" t="s">
         <v>3299</v>
@@ -11087,7 +11097,7 @@
       </c>
       <c r="W4" s="14"/>
       <c r="Z4" s="14">
-        <v>43880.512499999997</v>
+        <v>43881.319444444445</v>
       </c>
       <c r="AA4" s="13" t="s">
         <v>3293</v>
@@ -11107,10 +11117,10 @@
         <v>3292</v>
       </c>
       <c r="C5" s="14">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="D5" s="14">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>3296</v>
@@ -11121,17 +11131,23 @@
       <c r="G5" s="13" t="s">
         <v>121</v>
       </c>
+      <c r="L5" s="13">
+        <v>1</v>
+      </c>
       <c r="M5" s="13">
         <v>14</v>
       </c>
       <c r="O5" s="13">
         <v>3</v>
       </c>
+      <c r="P5" s="13">
+        <v>1</v>
+      </c>
       <c r="S5" s="13" t="s">
         <v>3297</v>
       </c>
       <c r="T5" s="14">
-        <v>43879.506944444445</v>
+        <v>43881.315972222219</v>
       </c>
       <c r="U5" s="13" t="s">
         <v>3299</v>
@@ -11140,7 +11156,7 @@
         <v>3300</v>
       </c>
       <c r="Z5" s="14">
-        <v>43880.512499999997</v>
+        <v>43881.319444444445</v>
       </c>
       <c r="AA5" s="13" t="s">
         <v>3293</v>
@@ -11160,10 +11176,10 @@
         <v>3292</v>
       </c>
       <c r="C6" s="14">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="D6" s="14">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>3296</v>
@@ -11184,7 +11200,7 @@
         <v>3297</v>
       </c>
       <c r="T6" s="14">
-        <v>43879.506944444445</v>
+        <v>43881.315972222219</v>
       </c>
       <c r="U6" s="13" t="s">
         <v>3299</v>
@@ -11193,7 +11209,7 @@
         <v>3300</v>
       </c>
       <c r="Z6" s="14">
-        <v>43880.512499999997</v>
+        <v>43881.319444444445</v>
       </c>
       <c r="AA6" s="13" t="s">
         <v>3293</v>
@@ -11213,10 +11229,10 @@
         <v>3292</v>
       </c>
       <c r="C7" s="14">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="D7" s="14">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>3296</v>
@@ -11237,7 +11253,7 @@
         <v>3297</v>
       </c>
       <c r="T7" s="14">
-        <v>43879.506944444445</v>
+        <v>43881.315972222219</v>
       </c>
       <c r="U7" s="13" t="s">
         <v>3299</v>
@@ -11246,7 +11262,7 @@
         <v>3300</v>
       </c>
       <c r="Z7" s="14">
-        <v>43880.512499999997</v>
+        <v>43881.319444444445</v>
       </c>
       <c r="AA7" s="13" t="s">
         <v>3293</v>
@@ -11266,10 +11282,10 @@
         <v>3292</v>
       </c>
       <c r="C8" s="14">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="D8" s="14">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>3296</v>
@@ -11280,9 +11296,6 @@
       <c r="G8" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="K8" s="13">
-        <v>4</v>
-      </c>
       <c r="M8" s="13">
         <v>13</v>
       </c>
@@ -11293,7 +11306,7 @@
         <v>3297</v>
       </c>
       <c r="T8" s="14">
-        <v>43879.506944444445</v>
+        <v>43881.315972222219</v>
       </c>
       <c r="U8" s="13" t="s">
         <v>3299</v>
@@ -11302,7 +11315,7 @@
         <v>3300</v>
       </c>
       <c r="Z8" s="14">
-        <v>43880.512499999997</v>
+        <v>43881.319444444445</v>
       </c>
       <c r="AA8" s="13" t="s">
         <v>3293</v>
@@ -11322,10 +11335,10 @@
         <v>3292</v>
       </c>
       <c r="C9" s="14">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="D9" s="14">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>3296</v>
@@ -11336,17 +11349,20 @@
       <c r="G9" s="13" t="s">
         <v>150</v>
       </c>
+      <c r="K9" s="13">
+        <v>1</v>
+      </c>
       <c r="M9" s="13">
         <v>9</v>
       </c>
       <c r="O9" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S9" s="13" t="s">
         <v>3297</v>
       </c>
       <c r="T9" s="14">
-        <v>43879.506944444445</v>
+        <v>43881.315972222219</v>
       </c>
       <c r="U9" s="13" t="s">
         <v>3299</v>
@@ -11355,7 +11371,7 @@
         <v>3300</v>
       </c>
       <c r="Z9" s="14">
-        <v>43880.512499999997</v>
+        <v>43881.319444444445</v>
       </c>
       <c r="AA9" s="13" t="s">
         <v>3293</v>
@@ -11375,10 +11391,10 @@
         <v>3292</v>
       </c>
       <c r="C10" s="14">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="D10" s="14">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>3296</v>
@@ -11389,9 +11405,6 @@
       <c r="G10" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="K10" s="13">
-        <v>2</v>
-      </c>
       <c r="M10" s="13">
         <v>7</v>
       </c>
@@ -11402,7 +11415,7 @@
         <v>3297</v>
       </c>
       <c r="T10" s="14">
-        <v>43879.506944444445</v>
+        <v>43881.315972222219</v>
       </c>
       <c r="U10" s="13" t="s">
         <v>3299</v>
@@ -11411,7 +11424,7 @@
         <v>3300</v>
       </c>
       <c r="Z10" s="14">
-        <v>43880.512499999997</v>
+        <v>43881.319444444445</v>
       </c>
       <c r="AA10" s="13" t="s">
         <v>3293</v>
@@ -11431,10 +11444,10 @@
         <v>3292</v>
       </c>
       <c r="C11" s="14">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="D11" s="14">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>3296</v>
@@ -11455,7 +11468,7 @@
         <v>3297</v>
       </c>
       <c r="T11" s="14">
-        <v>43879.506944444445</v>
+        <v>43881.315972222219</v>
       </c>
       <c r="U11" s="13" t="s">
         <v>3299</v>
@@ -11464,7 +11477,7 @@
         <v>3300</v>
       </c>
       <c r="Z11" s="14">
-        <v>43880.512499999997</v>
+        <v>43881.319444444445</v>
       </c>
       <c r="AA11" s="13" t="s">
         <v>3293</v>
@@ -11484,10 +11497,10 @@
         <v>3292</v>
       </c>
       <c r="C12" s="14">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="D12" s="14">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>3296</v>
@@ -11508,7 +11521,7 @@
         <v>3297</v>
       </c>
       <c r="T12" s="14">
-        <v>43879.506944444445</v>
+        <v>43881.315972222219</v>
       </c>
       <c r="U12" s="13" t="s">
         <v>3299</v>
@@ -11517,7 +11530,7 @@
         <v>3300</v>
       </c>
       <c r="Z12" s="14">
-        <v>43880.512499999997</v>
+        <v>43881.319444444445</v>
       </c>
       <c r="AA12" s="13" t="s">
         <v>3293</v>
@@ -11537,10 +11550,10 @@
         <v>3292</v>
       </c>
       <c r="C13" s="14">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="D13" s="14">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>3296</v>
@@ -11561,7 +11574,7 @@
         <v>3297</v>
       </c>
       <c r="T13" s="14">
-        <v>43879.506944444445</v>
+        <v>43881.315972222219</v>
       </c>
       <c r="U13" s="13" t="s">
         <v>3299</v>
@@ -11570,7 +11583,7 @@
         <v>3300</v>
       </c>
       <c r="Z13" s="14">
-        <v>43880.512499999997</v>
+        <v>43881.319444444445</v>
       </c>
       <c r="AA13" s="13" t="s">
         <v>3293</v>
@@ -11590,10 +11603,10 @@
         <v>3292</v>
       </c>
       <c r="C14" s="14">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="D14" s="14">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>3296</v>
@@ -11604,9 +11617,6 @@
       <c r="G14" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="K14" s="13">
-        <v>2</v>
-      </c>
       <c r="M14" s="13">
         <v>4</v>
       </c>
@@ -11617,7 +11627,7 @@
         <v>3297</v>
       </c>
       <c r="T14" s="14">
-        <v>43879.506944444445</v>
+        <v>43881.315972222219</v>
       </c>
       <c r="U14" s="13" t="s">
         <v>3299</v>
@@ -11626,7 +11636,7 @@
         <v>3300</v>
       </c>
       <c r="Z14" s="14">
-        <v>43880.512499999997</v>
+        <v>43881.319444444445</v>
       </c>
       <c r="AA14" s="13" t="s">
         <v>3293</v>
@@ -11646,10 +11656,10 @@
         <v>3292</v>
       </c>
       <c r="C15" s="14">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="D15" s="14">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>3296</v>
@@ -11667,7 +11677,7 @@
         <v>3297</v>
       </c>
       <c r="T15" s="14">
-        <v>43879.506944444445</v>
+        <v>43881.315972222219</v>
       </c>
       <c r="U15" s="13" t="s">
         <v>3299</v>
@@ -11676,7 +11686,7 @@
         <v>3300</v>
       </c>
       <c r="Z15" s="14">
-        <v>43880.512499999997</v>
+        <v>43881.319444444445</v>
       </c>
       <c r="AA15" s="13" t="s">
         <v>3293</v>
@@ -11696,10 +11706,10 @@
         <v>3292</v>
       </c>
       <c r="C16" s="14">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="D16" s="14">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>3296</v>
@@ -11720,7 +11730,7 @@
         <v>3297</v>
       </c>
       <c r="T16" s="14">
-        <v>43879.506944444445</v>
+        <v>43881.315972222219</v>
       </c>
       <c r="U16" s="13" t="s">
         <v>3299</v>
@@ -11729,7 +11739,7 @@
         <v>3300</v>
       </c>
       <c r="Z16" s="14">
-        <v>43880.512499999997</v>
+        <v>43881.319444444445</v>
       </c>
       <c r="AA16" s="13" t="s">
         <v>3293</v>
@@ -11749,10 +11759,10 @@
         <v>3292</v>
       </c>
       <c r="C17" s="14">
-        <v>43879</v>
+        <v>43880</v>
       </c>
       <c r="D17" s="14">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>3296</v>
@@ -11767,7 +11777,7 @@
         <v>3297</v>
       </c>
       <c r="T17" s="14">
-        <v>43879.506944444445</v>
+        <v>43881.315972222219</v>
       </c>
       <c r="U17" s="13" t="s">
         <v>3299</v>
@@ -11776,7 +11786,7 @@
         <v>3300</v>
       </c>
       <c r="Z17" s="14">
-        <v>43880.512499999997</v>
+        <v>43881.319444444445</v>
       </c>
       <c r="AA17" s="13" t="s">
         <v>3293</v>
